--- a/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong_all.xlsx
+++ b/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\xiaorong_for_GroupTC-BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4276CB0F-F8F6-413A-BE56-437B22FE9459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3D0F8-D9B7-4F8D-92AB-596BD80DD5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -256,12 +256,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -291,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -300,6 +306,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -616,7 +623,7 @@
                   <c:v>1.1333482242573152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.89456178998747349</c:v>
+                  <c:v>1.1394541163898659</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.1682376132655259</c:v>
@@ -936,7 +943,7 @@
                   <c:v>2.0279776179056759</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5864868240289747</c:v>
+                  <c:v>1.8971754763140336</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.8371584130044027</c:v>
@@ -966,7 +973,7 @@
                   <c:v>1.9144352728004832</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9320677544124838</c:v>
+                  <c:v>1.8838676116782624</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.6350139811254807</c:v>
@@ -1256,7 +1263,7 @@
                   <c:v>2.2118570183086312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6875814863102998</c:v>
+                  <c:v>1.9971125331668487</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.1012752517728384</c:v>
@@ -1286,7 +1293,7 @@
                   <c:v>1.9121254775789263</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8758579013251606</c:v>
+                  <c:v>2.1416321703134238</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.7050236465860524</c:v>
@@ -2423,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3087,26 +3094,26 @@
       <c r="B23">
         <v>95652855</v>
       </c>
-      <c r="C23">
-        <v>2.0709999999999999E-2</v>
-      </c>
-      <c r="D23">
-        <v>2.3151000000000001E-2</v>
-      </c>
-      <c r="E23">
-        <v>8.0070000000000002E-3</v>
-      </c>
-      <c r="F23">
-        <v>1.2272E-2</v>
+      <c r="C23" s="4">
+        <v>2.5590999999999999E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.2459E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.3488999999999999E-2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1.2814000000000001E-2</v>
       </c>
       <c r="G23">
-        <v>0.89456178998747349</v>
+        <v>1.1394541163898659</v>
       </c>
       <c r="H23">
-        <v>2.5864868240289747</v>
+        <v>1.8971754763140336</v>
       </c>
       <c r="I23">
-        <v>1.6875814863102998</v>
+        <v>1.9971125331668487</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -3383,20 +3390,20 @@
       <c r="D33">
         <v>7.5717999999999994E-2</v>
       </c>
-      <c r="E33">
-        <v>4.4985999999999998E-2</v>
-      </c>
-      <c r="F33">
-        <v>4.6334E-2</v>
+      <c r="E33" s="4">
+        <v>4.6136999999999997E-2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4.0584000000000002E-2</v>
       </c>
       <c r="G33">
         <v>1.1478908581843155</v>
       </c>
       <c r="H33">
-        <v>1.9320677544124838</v>
+        <v>1.8838676116782624</v>
       </c>
       <c r="I33">
-        <v>1.8758579013251606</v>
+        <v>2.1416321703134238</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">

--- a/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong_all.xlsx
+++ b/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\xiaorong_for_GroupTC-BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E3D0F8-D9B7-4F8D-92AB-596BD80DD5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401BD5AF-97A0-4442-9EBE-EC7325BE4093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,63 +55,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
-    <t>As-Caida</t>
-  </si>
-  <si>
-    <t>P2p-Gnutella31</t>
-  </si>
-  <si>
-    <t>Email-EuAll</t>
-  </si>
-  <si>
-    <t>Soc-Slashdot0922</t>
-  </si>
-  <si>
-    <t>Web-NotreDame</t>
-  </si>
-  <si>
-    <t>Com-Dblp</t>
-  </si>
-  <si>
-    <t>Amazon0601</t>
-  </si>
-  <si>
-    <t>RoadNet-CA</t>
-  </si>
-  <si>
-    <t>Wiki-Talk</t>
-  </si>
-  <si>
-    <t>Web-BerkStan</t>
-  </si>
-  <si>
-    <t>As-Skitter</t>
-  </si>
-  <si>
-    <t>Cit-Patents</t>
-  </si>
-  <si>
-    <t>Soc-Pokec</t>
-  </si>
-  <si>
-    <t>Sx-Stackoverflow</t>
-  </si>
-  <si>
-    <t>Com-Lj</t>
-  </si>
-  <si>
-    <t>Soc-LiveJ</t>
-  </si>
-  <si>
-    <t>Com-Orkut</t>
-  </si>
-  <si>
-    <t>Twitter7</t>
-  </si>
-  <si>
-    <t>Com-Friendster</t>
-  </si>
-  <si>
     <t>s20-e2</t>
   </si>
   <si>
@@ -217,6 +160,82 @@
   </si>
   <si>
     <t>speedup-opt123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,61 +435,61 @@
               <c:strCache>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>As-Caida</c:v>
+                  <c:v>AC</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>P2p-Gnutella31</c:v>
+                  <c:v>PG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Email-EuAll</c:v>
+                  <c:v>EE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Soc-Slashdot0922</c:v>
+                  <c:v>SS</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Web-NotreDame</c:v>
+                  <c:v>WN</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Com-Dblp</c:v>
+                  <c:v>CD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Amazon0601</c:v>
+                  <c:v>Am</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>RoadNet-CA</c:v>
+                  <c:v>RC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Wiki-Talk</c:v>
+                  <c:v>WT</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Web-BerkStan</c:v>
+                  <c:v>WB</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>As-Skitter</c:v>
+                  <c:v>AS</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Cit-Patents</c:v>
+                  <c:v>CP</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Soc-Pokec</c:v>
+                  <c:v>SP</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Sx-Stackoverflow</c:v>
+                  <c:v>Sx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Com-Lj</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Soc-LiveJ</c:v>
+                  <c:v>SL</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Com-Orkut</c:v>
+                  <c:v>CO</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Twitter7</c:v>
+                  <c:v>Tw</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Com-Friendster</c:v>
+                  <c:v>CF</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>s20-e2</c:v>
@@ -736,61 +755,61 @@
               <c:strCache>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>As-Caida</c:v>
+                  <c:v>AC</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>P2p-Gnutella31</c:v>
+                  <c:v>PG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Email-EuAll</c:v>
+                  <c:v>EE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Soc-Slashdot0922</c:v>
+                  <c:v>SS</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Web-NotreDame</c:v>
+                  <c:v>WN</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Com-Dblp</c:v>
+                  <c:v>CD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Amazon0601</c:v>
+                  <c:v>Am</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>RoadNet-CA</c:v>
+                  <c:v>RC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Wiki-Talk</c:v>
+                  <c:v>WT</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Web-BerkStan</c:v>
+                  <c:v>WB</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>As-Skitter</c:v>
+                  <c:v>AS</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Cit-Patents</c:v>
+                  <c:v>CP</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Soc-Pokec</c:v>
+                  <c:v>SP</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Sx-Stackoverflow</c:v>
+                  <c:v>Sx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Com-Lj</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Soc-LiveJ</c:v>
+                  <c:v>SL</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Com-Orkut</c:v>
+                  <c:v>CO</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Twitter7</c:v>
+                  <c:v>Tw</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Com-Friendster</c:v>
+                  <c:v>CF</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>s20-e2</c:v>
@@ -1056,61 +1075,61 @@
               <c:strCache>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>As-Caida</c:v>
+                  <c:v>AC</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>P2p-Gnutella31</c:v>
+                  <c:v>PG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Email-EuAll</c:v>
+                  <c:v>EE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Soc-Slashdot0922</c:v>
+                  <c:v>SS</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Web-NotreDame</c:v>
+                  <c:v>WN</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Com-Dblp</c:v>
+                  <c:v>CD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Amazon0601</c:v>
+                  <c:v>Am</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>RoadNet-CA</c:v>
+                  <c:v>RC</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Wiki-Talk</c:v>
+                  <c:v>WT</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Web-BerkStan</c:v>
+                  <c:v>WB</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>As-Skitter</c:v>
+                  <c:v>AS</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Cit-Patents</c:v>
+                  <c:v>CP</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Soc-Pokec</c:v>
+                  <c:v>SP</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Sx-Stackoverflow</c:v>
+                  <c:v>Sx</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Com-Lj</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Soc-LiveJ</c:v>
+                  <c:v>SL</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Com-Orkut</c:v>
+                  <c:v>CO</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Twitter7</c:v>
+                  <c:v>Tw</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Com-Friendster</c:v>
+                  <c:v>CF</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>s20-e2</c:v>
@@ -2430,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2448,36 +2467,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>36365</v>
@@ -2509,7 +2528,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>2024</v>
@@ -2538,7 +2557,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>267313</v>
@@ -2567,7 +2586,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>602592</v>
@@ -2596,7 +2615,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>8910005</v>
@@ -2625,7 +2644,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>2224385</v>
@@ -2654,7 +2673,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>3986507</v>
@@ -2683,7 +2702,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>120676</v>
@@ -2712,7 +2731,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>9203519</v>
@@ -2741,7 +2760,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>64690980</v>
@@ -2770,7 +2789,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>28769868</v>
@@ -2799,7 +2818,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>7515023</v>
@@ -2828,7 +2847,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>32557458</v>
@@ -2857,7 +2876,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>114206974</v>
@@ -2886,7 +2905,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>177820130</v>
@@ -2915,7 +2934,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>285730264</v>
@@ -2944,7 +2963,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>627584181</v>
@@ -2973,7 +2992,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>34824916864</v>
@@ -3002,7 +3021,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>4173724142</v>
@@ -3031,7 +3050,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>3966418</v>
@@ -3060,7 +3079,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>20219754</v>
@@ -3089,7 +3108,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>95652855</v>
@@ -3118,7 +3137,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>420642337</v>
@@ -3147,7 +3166,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>1726926306</v>
@@ -3176,7 +3195,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>6619001657</v>
@@ -3205,7 +3224,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>23750654538</v>
@@ -3234,7 +3253,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>79941782408</v>
@@ -3263,7 +3282,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>252743155375</v>
@@ -3292,7 +3311,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>752157328768</v>
@@ -3321,7 +3340,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>135616399</v>
@@ -3350,7 +3369,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>319298964</v>
@@ -3379,7 +3398,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>745161019</v>
@@ -3408,7 +3427,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>1726926306</v>
@@ -3437,7 +3456,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>3964459518</v>
@@ -3466,7 +3485,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>9055827800</v>
@@ -3495,7 +3514,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>20579400628</v>
@@ -3524,7 +3543,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>46556649365</v>
@@ -3553,7 +3572,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>477229224</v>
@@ -3582,7 +3601,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>1160044284</v>
@@ -3611,7 +3630,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>2785011513</v>
@@ -3640,7 +3659,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>6619001657</v>
@@ -3669,7 +3688,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>15576517960</v>
@@ -3698,7 +3717,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>36384441697</v>
@@ -3727,7 +3746,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>84400047392</v>
@@ -3756,7 +3775,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>194527574673</v>

--- a/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong_all.xlsx
+++ b/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-xiaorong_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\xiaorong_for_GroupTC-BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401BD5AF-97A0-4442-9EBE-EC7325BE4093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D5B504-9846-4F3A-849D-62EBE44861D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Am</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,11 +223,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tw</t>
+    <t>CF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CF</t>
+    <t>AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
                   <c:v>CD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Am</c:v>
+                  <c:v>AM</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>RC</c:v>
@@ -474,7 +474,7 @@
                   <c:v>SP</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Sx</c:v>
+                  <c:v>SX</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>CL</c:v>
@@ -486,7 +486,7 @@
                   <c:v>CO</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Tw</c:v>
+                  <c:v>TW</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>CF</c:v>
@@ -773,7 +773,7 @@
                   <c:v>CD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Am</c:v>
+                  <c:v>AM</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>RC</c:v>
@@ -794,7 +794,7 @@
                   <c:v>SP</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Sx</c:v>
+                  <c:v>SX</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>CL</c:v>
@@ -806,7 +806,7 @@
                   <c:v>CO</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Tw</c:v>
+                  <c:v>TW</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>CF</c:v>
@@ -1093,7 +1093,7 @@
                   <c:v>CD</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Am</c:v>
+                  <c:v>AM</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>RC</c:v>
@@ -1114,7 +1114,7 @@
                   <c:v>SP</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Sx</c:v>
+                  <c:v>SX</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>CL</c:v>
@@ -1126,7 +1126,7 @@
                   <c:v>CO</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Tw</c:v>
+                  <c:v>TW</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>CF</c:v>
@@ -2449,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>3986507</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>120676</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>9203519</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>64690980</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>28769868</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>7515023</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>32557458</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>114206974</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>177820130</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>285730264</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>627584181</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>34824916864</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>4173724142</v>
